--- a/123.xlsx
+++ b/123.xlsx
@@ -4,17 +4,53 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13520"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>BK-liao</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>操作系统用户：
+大部分系统区分大小写（如：麒麟、</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>主机名</t>
   </si>
@@ -58,26 +94,26 @@
     <t>/data/dataxone/sync</t>
   </si>
   <si>
-    <t>A_oracle2kafka_7_82</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>kafka</t>
+    <t>A_mysql2mysql_7_110</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>192.168.6.206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,37 +130,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -139,95 +177,98 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -251,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +501,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,20 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,32 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,148 +603,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,60 +758,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1042,17 +1083,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="15.6923076923077" customWidth="1"/>
-    <col min="5" max="5" width="15.9230769230769" customWidth="1"/>
+    <col min="1" max="1" width="15.6944444444444" customWidth="1"/>
+    <col min="5" max="5" width="15.9259259259259" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="24.1923076923077" customWidth="1"/>
-    <col min="8" max="8" width="17.0769230769231" customWidth="1"/>
-    <col min="9" max="9" width="12.7692307692308" customWidth="1"/>
+    <col min="7" max="7" width="24.1944444444444" customWidth="1"/>
+    <col min="8" max="8" width="17.0740740740741" customWidth="1"/>
+    <col min="9" max="9" width="12.7685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1109,9 +1150,7 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -1137,12 +1176,12 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>22</v>
@@ -1162,18 +1201,19 @@
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
-    <hyperlink ref="E3" r:id="rId1" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
-    <hyperlink ref="E4" r:id="rId1" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
+    <hyperlink ref="E2" r:id="rId3" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
+    <hyperlink ref="E3" r:id="rId3" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
+    <hyperlink ref="E4" r:id="rId3" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/123.xlsx
+++ b/123.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>主机名</t>
   </si>
@@ -94,13 +94,10 @@
     <t>/data/dataxone/sync</t>
   </si>
   <si>
-    <t>A_mysql2mysql_7_110</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>192.168.6.206</t>
+    <t>A_oracle2kafka_7_82</t>
+  </si>
+  <si>
+    <t>KAFKA</t>
   </si>
 </sst>
 </file>
@@ -1080,13 +1077,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.6944444444444" customWidth="1"/>
     <col min="5" max="5" width="15.9259259259259" customWidth="1"/>
@@ -1147,70 +1144,14 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId3" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
-    <hyperlink ref="E3" r:id="rId3" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
-    <hyperlink ref="E4" r:id="rId3" display="Dsgdata@!A2B" tooltip="mailto:Dsgdata@!A2B"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
